--- a/documentation/pflichtenheft/progress.xlsx
+++ b/documentation/pflichtenheft/progress.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="98">
   <si>
     <t>genometa project overview</t>
   </si>
@@ -291,13 +291,25 @@
     <t>29, 37, 43</t>
   </si>
   <si>
-    <t>16, 24</t>
-  </si>
-  <si>
-    <t>48, 49</t>
-  </si>
-  <si>
-    <t>27, 28, 35, 40, 45, 46, 47, 52, 53</t>
+    <t>48, 49, 66, 67</t>
+  </si>
+  <si>
+    <t>16, 24, 68</t>
+  </si>
+  <si>
+    <t>27, 28, 35, 40, 45, 46, 47, 52, 53, 63, 64, 65, 70</t>
+  </si>
+  <si>
+    <t>36, 76</t>
+  </si>
+  <si>
+    <t>17, 58, 59, 79, 80</t>
+  </si>
+  <si>
+    <t>71, 72, 73, 74, 81, 82</t>
+  </si>
+  <si>
+    <t>61, 75, 83, 85</t>
   </si>
 </sst>
 </file>
@@ -782,7 +794,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:8" ht="25.5">
+    <row r="6" spans="1:8" ht="38.25">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="12"/>
@@ -794,7 +806,7 @@
         <v>93</v>
       </c>
       <c r="G6" s="14">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -807,7 +819,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="11"/>
       <c r="G7" s="14">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H7" s="3"/>
     </row>
@@ -820,8 +832,8 @@
         <v>6</v>
       </c>
       <c r="D8" s="9"/>
-      <c r="E8" s="15" t="s">
-        <v>14</v>
+      <c r="E8" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="14"/>
@@ -848,10 +860,10 @@
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="14">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -862,8 +874,8 @@
         <v>9</v>
       </c>
       <c r="E11" s="9"/>
-      <c r="F11" s="11">
-        <v>36</v>
+      <c r="F11" s="11" t="s">
+        <v>94</v>
       </c>
       <c r="G11" s="14">
         <v>0.1</v>
@@ -894,7 +906,7 @@
       <c r="E13" s="9"/>
       <c r="F13" s="11"/>
       <c r="G13" s="14">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -920,7 +932,9 @@
         <v>20</v>
       </c>
       <c r="E15" s="9"/>
-      <c r="F15" s="11"/>
+      <c r="F15" s="11" t="s">
+        <v>96</v>
+      </c>
       <c r="G15" s="14">
         <v>0.9</v>
       </c>
@@ -951,8 +965,8 @@
         <v>25</v>
       </c>
       <c r="D17" s="9"/>
-      <c r="E17" s="16" t="s">
-        <v>28</v>
+      <c r="E17" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="14"/>
@@ -965,9 +979,11 @@
         <v>26</v>
       </c>
       <c r="E18" s="9"/>
-      <c r="F18" s="11"/>
+      <c r="F18" s="11">
+        <v>84</v>
+      </c>
       <c r="G18" s="14">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -980,7 +996,7 @@
       <c r="E19" s="9"/>
       <c r="F19" s="11"/>
       <c r="G19" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -992,8 +1008,8 @@
         <v>30</v>
       </c>
       <c r="D20" s="9"/>
-      <c r="E20" s="16" t="s">
-        <v>28</v>
+      <c r="E20" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="14"/>
@@ -1006,9 +1022,11 @@
         <v>31</v>
       </c>
       <c r="E21" s="9"/>
-      <c r="F21" s="11"/>
+      <c r="F21" s="11" t="s">
+        <v>97</v>
+      </c>
       <c r="G21" s="14">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1119,8 +1137,8 @@
         <v>43</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="15" t="s">
-        <v>14</v>
+      <c r="E29" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="14"/>
@@ -1134,10 +1152,10 @@
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G30" s="14">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1195,7 +1213,7 @@
       <c r="E34" s="9"/>
       <c r="F34" s="11"/>
       <c r="G34" s="14">
-        <v>0.2</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1208,7 +1226,7 @@
       <c r="E35" s="9"/>
       <c r="F35" s="11"/>
       <c r="G35" s="14">
-        <v>0.2</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1327,7 +1345,7 @@
         <v>90</v>
       </c>
       <c r="G44" s="14">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1607,8 +1625,8 @@
       <c r="E64" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F64" s="11">
-        <v>17</v>
+      <c r="F64" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="G64" s="14">
         <v>0.75</v>
